--- a/EPICgame.xlsx
+++ b/EPICgame.xlsx
@@ -35,60 +35,60 @@
     <t>垃圾</t>
   </si>
   <si>
+    <t>horace</t>
+  </si>
+  <si>
+    <t>看门狗</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>the bridge</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>20xx</t>
+  </si>
+  <si>
+    <t>GTA5</t>
+  </si>
+  <si>
+    <t>模拟农场19</t>
+  </si>
+  <si>
+    <t>枪</t>
+  </si>
+  <si>
+    <t>axiom verge</t>
+  </si>
+  <si>
+    <t>a tatol war saga</t>
+  </si>
+  <si>
+    <t>hue</t>
+  </si>
+  <si>
     <t>ticket to ride</t>
   </si>
   <si>
-    <t>horace</t>
-  </si>
-  <si>
-    <t>看门狗</t>
-  </si>
-  <si>
-    <t>inside</t>
-  </si>
-  <si>
-    <t>the bridge</t>
-  </si>
-  <si>
-    <t>VR</t>
+    <t>车</t>
+  </si>
+  <si>
+    <t>shadow tactics</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>蝙蝠侠阿卡姆骑士</t>
   </si>
   <si>
     <t>carcassonne</t>
   </si>
   <si>
-    <t>20xx</t>
-  </si>
-  <si>
-    <t>GTA5</t>
-  </si>
-  <si>
-    <t>模拟农场19</t>
-  </si>
-  <si>
-    <t>枪</t>
-  </si>
-  <si>
-    <t>axiom verge</t>
-  </si>
-  <si>
-    <t>a tatol war saga</t>
-  </si>
-  <si>
-    <t>hue</t>
-  </si>
-  <si>
-    <t>车</t>
-  </si>
-  <si>
-    <t>shadow tactics</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>蝙蝠侠阿卡姆骑士</t>
-  </si>
-  <si>
     <t>球</t>
   </si>
   <si>
@@ -140,259 +140,259 @@
     <t>平台跳跃</t>
   </si>
   <si>
+    <t>乐高蝙蝠侠2</t>
+  </si>
+  <si>
+    <t>abzu</t>
+  </si>
+  <si>
+    <t>模拟经营</t>
+  </si>
+  <si>
+    <t>gonner</t>
+  </si>
+  <si>
+    <t>乐高蝙蝠侠3</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t>恐怖</t>
+  </si>
+  <si>
+    <t>天国 拯救</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无主之地2 </t>
+  </si>
+  <si>
+    <t>alan wake</t>
+  </si>
+  <si>
+    <t>棋牌</t>
+  </si>
+  <si>
+    <t>无主之地边缘禁地</t>
+  </si>
+  <si>
+    <t>alan wake's american nightmare</t>
+  </si>
+  <si>
+    <t>打飞机</t>
+  </si>
+  <si>
+    <t>drawful 2</t>
+  </si>
+  <si>
+    <t>amnesia</t>
+  </si>
+  <si>
+    <t>街机</t>
+  </si>
+  <si>
+    <t>figment</t>
+  </si>
+  <si>
+    <t>anodyne 2</t>
+  </si>
+  <si>
+    <t>解谜</t>
+  </si>
+  <si>
+    <t>hob</t>
+  </si>
+  <si>
+    <t>ape out</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>jotun</t>
+  </si>
+  <si>
+    <t>barony</t>
+  </si>
+  <si>
+    <t>生存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正当防卫4 </t>
+  </si>
+  <si>
+    <t>close to the sun</t>
+  </si>
+  <si>
+    <t>lifeless planet</t>
+  </si>
+  <si>
+    <t>conarium</t>
+  </si>
+  <si>
+    <t>minit</t>
+  </si>
+  <si>
+    <t>costume quest</t>
+  </si>
+  <si>
+    <t>moonlighter</t>
+  </si>
+  <si>
+    <t>darksiders2</t>
+  </si>
+  <si>
+    <t>mutazione</t>
+  </si>
+  <si>
+    <t>darksiders</t>
+  </si>
+  <si>
+    <t>next up hero</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>pathway</t>
+  </si>
+  <si>
+    <t>faeria</t>
+  </si>
+  <si>
+    <t>ruiner</t>
+  </si>
+  <si>
+    <t>faster than light</t>
+  </si>
+  <si>
+    <t>侍魂</t>
+  </si>
+  <si>
+    <t>for the king</t>
+  </si>
+  <si>
+    <t>文明6</t>
+  </si>
+  <si>
+    <t>gnog</t>
+  </si>
+  <si>
+    <t>夏洛克 福尔摩斯</t>
+  </si>
+  <si>
+    <t>gong home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super brothers </t>
+  </si>
+  <si>
+    <t>hello neghbor</t>
+  </si>
+  <si>
+    <t>阿尔托游戏系列合集</t>
+  </si>
+  <si>
+    <t>inner space</t>
+  </si>
+  <si>
+    <t>the messenger</t>
+  </si>
+  <si>
+    <t>into the breach</t>
+  </si>
+  <si>
+    <t>这是我的战争</t>
+  </si>
+  <si>
+    <t>killing floor 2</t>
+  </si>
+  <si>
+    <t>totally accurate battle simulator</t>
+  </si>
+  <si>
+    <t>layers of fear</t>
+  </si>
+  <si>
+    <t>towerfall ascension</t>
+  </si>
+  <si>
+    <t>little inferno</t>
+  </si>
+  <si>
+    <t>wheels of aurelia</t>
+  </si>
+  <si>
+    <t>metro 2033</t>
+  </si>
+  <si>
+    <t>wilmot's warehouse</t>
+  </si>
+  <si>
+    <t>nuclear throne</t>
+  </si>
+  <si>
+    <t>yooka-laylee and the impossible liar</t>
+  </si>
+  <si>
+    <t>offworld trading company</t>
+  </si>
+  <si>
+    <t>enter the gungeon</t>
+  </si>
+  <si>
+    <t>地狱厨房</t>
+  </si>
+  <si>
+    <t>god's trigger</t>
+  </si>
+  <si>
+    <t>QUBE 2</t>
+  </si>
+  <si>
+    <t>remnant from the ashes</t>
+  </si>
+  <si>
+    <t>sludge life</t>
+  </si>
+  <si>
     <t>crashlands</t>
   </si>
   <si>
-    <t>乐高蝙蝠侠2</t>
-  </si>
-  <si>
-    <t>abzu</t>
-  </si>
-  <si>
-    <t>模拟经营</t>
-  </si>
-  <si>
-    <t>gonner</t>
-  </si>
-  <si>
-    <t>乐高蝙蝠侠3</t>
-  </si>
-  <si>
-    <t>AER</t>
-  </si>
-  <si>
-    <t>恐怖</t>
-  </si>
-  <si>
-    <t>天国 拯救</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无主之地2 </t>
-  </si>
-  <si>
-    <t>alan wake</t>
-  </si>
-  <si>
-    <t>棋牌</t>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>stranger things 3</t>
+  </si>
+  <si>
+    <t>super hot</t>
+  </si>
+  <si>
+    <t>surviving mars</t>
+  </si>
+  <si>
+    <t>the end is nigh</t>
+  </si>
+  <si>
+    <t>越狱</t>
+  </si>
+  <si>
+    <t>越狱2</t>
+  </si>
+  <si>
+    <t>the stanley parable</t>
+  </si>
+  <si>
+    <t>the talos principle</t>
+  </si>
+  <si>
+    <t>the wolf among us</t>
+  </si>
+  <si>
+    <t>world war z</t>
   </si>
   <si>
     <t>sundered(支离破碎)</t>
-  </si>
-  <si>
-    <t>无主之地边缘禁地</t>
-  </si>
-  <si>
-    <t>alan wake's american nightmare</t>
-  </si>
-  <si>
-    <t>打飞机</t>
-  </si>
-  <si>
-    <t>drawful 2</t>
-  </si>
-  <si>
-    <t>amnesia</t>
-  </si>
-  <si>
-    <t>街机</t>
-  </si>
-  <si>
-    <t>figment</t>
-  </si>
-  <si>
-    <t>anodyne 2</t>
-  </si>
-  <si>
-    <t>解谜</t>
-  </si>
-  <si>
-    <t>hob</t>
-  </si>
-  <si>
-    <t>ape out</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>jotun</t>
-  </si>
-  <si>
-    <t>barony</t>
-  </si>
-  <si>
-    <t>生存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正当防卫4 </t>
-  </si>
-  <si>
-    <t>close to the sun</t>
-  </si>
-  <si>
-    <t>lifeless planet</t>
-  </si>
-  <si>
-    <t>conarium</t>
-  </si>
-  <si>
-    <t>minit</t>
-  </si>
-  <si>
-    <t>costume quest</t>
-  </si>
-  <si>
-    <t>moonlighter</t>
-  </si>
-  <si>
-    <t>darksiders2</t>
-  </si>
-  <si>
-    <t>mutazione</t>
-  </si>
-  <si>
-    <t>darksiders</t>
-  </si>
-  <si>
-    <t>next up hero</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>pathway</t>
-  </si>
-  <si>
-    <t>faeria</t>
-  </si>
-  <si>
-    <t>ruiner</t>
-  </si>
-  <si>
-    <t>faster than light</t>
-  </si>
-  <si>
-    <t>侍魂</t>
-  </si>
-  <si>
-    <t>for the king</t>
-  </si>
-  <si>
-    <t>文明6</t>
-  </si>
-  <si>
-    <t>gnog</t>
-  </si>
-  <si>
-    <t>夏洛克 福尔摩斯</t>
-  </si>
-  <si>
-    <t>gong home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">super brothers </t>
-  </si>
-  <si>
-    <t>hello neghbor</t>
-  </si>
-  <si>
-    <t>阿尔托游戏系列合集</t>
-  </si>
-  <si>
-    <t>inner space</t>
-  </si>
-  <si>
-    <t>the messenger</t>
-  </si>
-  <si>
-    <t>into the breach</t>
-  </si>
-  <si>
-    <t>这是我的战争</t>
-  </si>
-  <si>
-    <t>killing floor 2</t>
-  </si>
-  <si>
-    <t>totally accurate battle simulator</t>
-  </si>
-  <si>
-    <t>layers of fear</t>
-  </si>
-  <si>
-    <t>towerfall ascension</t>
-  </si>
-  <si>
-    <t>little inferno</t>
-  </si>
-  <si>
-    <t>wheels of aurelia</t>
-  </si>
-  <si>
-    <t>metro 2033</t>
-  </si>
-  <si>
-    <t>wilmot's warehouse</t>
-  </si>
-  <si>
-    <t>nuclear throne</t>
-  </si>
-  <si>
-    <t>yooka-laylee and the impossible liar</t>
-  </si>
-  <si>
-    <t>offworld trading company</t>
-  </si>
-  <si>
-    <t>enter the gungeon</t>
-  </si>
-  <si>
-    <t>地狱厨房</t>
-  </si>
-  <si>
-    <t>god's trigger</t>
-  </si>
-  <si>
-    <t>QUBE 2</t>
-  </si>
-  <si>
-    <t>remnant from the ashes</t>
-  </si>
-  <si>
-    <t>sludge life</t>
-  </si>
-  <si>
-    <t>soma</t>
-  </si>
-  <si>
-    <t>stranger things 3</t>
-  </si>
-  <si>
-    <t>super hot</t>
-  </si>
-  <si>
-    <t>surviving mars</t>
-  </si>
-  <si>
-    <t>the end is nigh</t>
-  </si>
-  <si>
-    <t>越狱</t>
-  </si>
-  <si>
-    <t>越狱2</t>
-  </si>
-  <si>
-    <t>the stanley parable</t>
-  </si>
-  <si>
-    <t>the talos principle</t>
-  </si>
-  <si>
-    <t>the wolf among us</t>
-  </si>
-  <si>
-    <t>world war z</t>
   </si>
   <si>
     <t>PC:</t>
@@ -457,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -480,29 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,19 +500,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,7 +556,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,21 +614,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="49">
     <fill>
@@ -636,54 +636,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -720,187 +720,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,6 +959,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -998,6 +1013,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1009,30 +1033,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,145 +1064,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1276,10 +1276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,10 +1630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1666,72 +1666,66 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+    <row r="2" ht="17" customHeight="1" spans="2:8">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="13" t="s">
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="2:8">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
-      <c r="A3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="15" t="s">
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:8">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="H4" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>24</v>
@@ -1744,7 +1738,7 @@
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1759,7 +1753,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="21" t="s">
@@ -1782,362 +1776,370 @@
       </c>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
-      <c r="A10" s="23" t="s">
+    <row r="10" ht="17" customHeight="1" spans="2:8">
+      <c r="B10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="15" t="s">
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
-      <c r="A11" s="14" t="s">
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="10" t="s">
+      <c r="H12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="8" t="s">
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="2:8">
+      <c r="B13" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
-      <c r="A13" s="14" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="H13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10" t="s">
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="2:8">
+      <c r="B14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="2:8">
-      <c r="B14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1" spans="2:8">
       <c r="B15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1" spans="2:8">
       <c r="B16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1" spans="2:8">
       <c r="B17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="23" t="s">
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="2:6">
+      <c r="B18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="F18" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="2:6">
-      <c r="B18" s="10" t="s">
+    <row r="19" ht="17" customHeight="1" spans="2:6">
+      <c r="B19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="2:6">
-      <c r="B19" s="12" t="s">
+    <row r="20" ht="17" customHeight="1" spans="2:6">
+      <c r="B20" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F20" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="1" spans="2:6">
-      <c r="B20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1" spans="2:6">
       <c r="B21" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="2:6">
+      <c r="B22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1" spans="2:6">
-      <c r="B22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1" spans="2:6">
       <c r="B23" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="17" customHeight="1" spans="2:6">
       <c r="B25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" ht="17" customHeight="1" spans="2:6">
+      <c r="B26" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F26" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="26" ht="17" customHeight="1" spans="2:6">
-      <c r="B26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="2:6">
       <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" ht="17" customHeight="1" spans="2:6">
+      <c r="B28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F28" s="11" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="28" ht="17" customHeight="1" spans="2:6">
-      <c r="B28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="2:6">
       <c r="B29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="17" customHeight="1" spans="2:6">
       <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" ht="17" customHeight="1" spans="2:6">
+      <c r="B31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F31" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="2:6">
-      <c r="B31" s="9" t="s">
+    <row r="32" ht="17" customHeight="1" spans="2:6">
+      <c r="B32" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F32" s="9" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="32" ht="17" customHeight="1" spans="2:6">
-      <c r="B32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" ht="17" customHeight="1" spans="2:6">
       <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" ht="17" customHeight="1" spans="2:6">
+      <c r="B34" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F34" s="4" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="34" ht="17" customHeight="1" spans="2:6">
-      <c r="B34" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" ht="17" customHeight="1" spans="2:6">
       <c r="B35" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" ht="17" customHeight="1" spans="2:6">
+      <c r="B36" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F36" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="2:6">
-      <c r="B36" s="15" t="s">
+    <row r="37" ht="17" customHeight="1" spans="2:6">
+      <c r="B37" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F37" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="2:6">
-      <c r="B37" s="9" t="s">
+    <row r="38" ht="17" customHeight="1" spans="2:6">
+      <c r="B38" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="2:6">
-      <c r="B38" s="14" t="s">
+    <row r="39" ht="17" customHeight="1" spans="2:6">
+      <c r="B39" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="2:6">
-      <c r="B39" s="14" t="s">
+    <row r="40" ht="17" customHeight="1" spans="2:6">
+      <c r="B40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="12" t="s">
+    </row>
+    <row r="41" ht="17" customHeight="1" spans="2:6">
+      <c r="B41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="6:6">
-      <c r="F40" s="10" t="s">
+    <row r="42" ht="17" customHeight="1" spans="2:6">
+      <c r="B42" s="24" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" ht="17" customHeight="1" spans="6:6">
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="10" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="42" ht="17" customHeight="1" spans="6:6">
-      <c r="F42" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" ht="17" customHeight="1" spans="6:6">
       <c r="F43" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" ht="17" customHeight="1" spans="6:6">
+      <c r="F44" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="6:6">
-      <c r="F44" s="10" t="s">
+    <row r="45" spans="6:6">
+      <c r="F45" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="23" t="s">
+    <row r="46" spans="6:6">
+      <c r="F46" s="8" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="12" t="s">
+    <row r="50" spans="6:6">
+      <c r="F50" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="12" t="s">
+    <row r="51" spans="6:6">
+      <c r="F51" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="6:6">
-      <c r="F51" s="12" t="s">
+    <row r="52" spans="6:6">
+      <c r="F52" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="10" t="s">
+    <row r="53" spans="6:6">
+      <c r="F53" s="13" t="s">
         <v>125</v>
       </c>
     </row>

--- a/EPICgame.xlsx
+++ b/EPICgame.xlsx
@@ -77,322 +77,322 @@
     <t>车</t>
   </si>
   <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>蝙蝠侠阿卡姆骑士</t>
+  </si>
+  <si>
+    <t>carcassonne</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>突变元年</t>
+  </si>
+  <si>
+    <t>bad north</t>
+  </si>
+  <si>
+    <t>fez</t>
+  </si>
+  <si>
+    <t>战略</t>
+  </si>
+  <si>
+    <t>火炬之光</t>
+  </si>
+  <si>
+    <t>蝙蝠侠阿卡姆疯人院年度游戏</t>
+  </si>
+  <si>
+    <t>observer</t>
+  </si>
+  <si>
+    <t>互动电影</t>
+  </si>
+  <si>
+    <t>hyper light drifter</t>
+  </si>
+  <si>
+    <t>蝙蝠侠阿卡姆之城</t>
+  </si>
+  <si>
+    <t>3 out of 10</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>蔚蓝</t>
+  </si>
+  <si>
+    <t>乐高蝙蝠侠</t>
+  </si>
+  <si>
+    <t>a short hike</t>
+  </si>
+  <si>
+    <t>平台跳跃</t>
+  </si>
+  <si>
+    <t>乐高蝙蝠侠2</t>
+  </si>
+  <si>
+    <t>abzu</t>
+  </si>
+  <si>
+    <t>模拟经营</t>
+  </si>
+  <si>
+    <t>gonner</t>
+  </si>
+  <si>
+    <t>乐高蝙蝠侠3</t>
+  </si>
+  <si>
+    <t>AER</t>
+  </si>
+  <si>
+    <t>恐怖</t>
+  </si>
+  <si>
+    <t>天国 拯救</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无主之地2 </t>
+  </si>
+  <si>
+    <t>alan wake</t>
+  </si>
+  <si>
+    <t>棋牌</t>
+  </si>
+  <si>
+    <t>无主之地边缘禁地</t>
+  </si>
+  <si>
+    <t>alan wake's american nightmare</t>
+  </si>
+  <si>
+    <t>打飞机</t>
+  </si>
+  <si>
+    <t>drawful 2</t>
+  </si>
+  <si>
+    <t>amnesia</t>
+  </si>
+  <si>
+    <t>街机</t>
+  </si>
+  <si>
+    <t>figment</t>
+  </si>
+  <si>
+    <t>anodyne 2</t>
+  </si>
+  <si>
+    <t>解谜</t>
+  </si>
+  <si>
+    <t>hob</t>
+  </si>
+  <si>
+    <t>ape out</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>jotun</t>
+  </si>
+  <si>
+    <t>barony</t>
+  </si>
+  <si>
+    <t>生存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正当防卫4 </t>
+  </si>
+  <si>
+    <t>close to the sun</t>
+  </si>
+  <si>
+    <t>lifeless planet</t>
+  </si>
+  <si>
+    <t>conarium</t>
+  </si>
+  <si>
+    <t>minit</t>
+  </si>
+  <si>
+    <t>costume quest</t>
+  </si>
+  <si>
+    <t>moonlighter</t>
+  </si>
+  <si>
+    <t>darksiders2</t>
+  </si>
+  <si>
+    <t>mutazione</t>
+  </si>
+  <si>
+    <t>darksiders</t>
+  </si>
+  <si>
+    <t>next up hero</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>pathway</t>
+  </si>
+  <si>
+    <t>faeria</t>
+  </si>
+  <si>
+    <t>ruiner</t>
+  </si>
+  <si>
+    <t>faster than light</t>
+  </si>
+  <si>
+    <t>侍魂</t>
+  </si>
+  <si>
+    <t>for the king</t>
+  </si>
+  <si>
+    <t>文明6</t>
+  </si>
+  <si>
+    <t>gnog</t>
+  </si>
+  <si>
+    <t>夏洛克 福尔摩斯</t>
+  </si>
+  <si>
+    <t>gong home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super brothers </t>
+  </si>
+  <si>
+    <t>hello neghbor</t>
+  </si>
+  <si>
+    <t>阿尔托游戏系列合集</t>
+  </si>
+  <si>
+    <t>inner space</t>
+  </si>
+  <si>
+    <t>the messenger</t>
+  </si>
+  <si>
+    <t>into the breach</t>
+  </si>
+  <si>
+    <t>这是我的战争</t>
+  </si>
+  <si>
+    <t>killing floor 2</t>
+  </si>
+  <si>
+    <t>totally accurate battle simulator</t>
+  </si>
+  <si>
+    <t>layers of fear</t>
+  </si>
+  <si>
+    <t>towerfall ascension</t>
+  </si>
+  <si>
+    <t>little inferno</t>
+  </si>
+  <si>
+    <t>wheels of aurelia</t>
+  </si>
+  <si>
+    <t>metro 2033</t>
+  </si>
+  <si>
+    <t>wilmot's warehouse</t>
+  </si>
+  <si>
+    <t>nuclear throne</t>
+  </si>
+  <si>
+    <t>yooka-laylee and the impossible liar</t>
+  </si>
+  <si>
+    <t>offworld trading company</t>
+  </si>
+  <si>
+    <t>enter the gungeon</t>
+  </si>
+  <si>
+    <t>地狱厨房</t>
+  </si>
+  <si>
+    <t>god's trigger</t>
+  </si>
+  <si>
+    <t>QUBE 2</t>
+  </si>
+  <si>
+    <t>remnant from the ashes</t>
+  </si>
+  <si>
+    <t>sludge life</t>
+  </si>
+  <si>
+    <t>crashlands</t>
+  </si>
+  <si>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>stranger things 3</t>
+  </si>
+  <si>
+    <t>super hot</t>
+  </si>
+  <si>
+    <t>surviving mars</t>
+  </si>
+  <si>
+    <t>the end is nigh</t>
+  </si>
+  <si>
+    <t>越狱</t>
+  </si>
+  <si>
+    <t>越狱2</t>
+  </si>
+  <si>
+    <t>the stanley parable</t>
+  </si>
+  <si>
+    <t>the talos principle</t>
+  </si>
+  <si>
+    <t>the wolf among us</t>
+  </si>
+  <si>
+    <t>world war z</t>
+  </si>
+  <si>
+    <t>sundered(支离破碎)</t>
+  </si>
+  <si>
     <t>shadow tactics</t>
-  </si>
-  <si>
-    <t>ARK</t>
-  </si>
-  <si>
-    <t>蝙蝠侠阿卡姆骑士</t>
-  </si>
-  <si>
-    <t>carcassonne</t>
-  </si>
-  <si>
-    <t>球</t>
-  </si>
-  <si>
-    <t>突变元年</t>
-  </si>
-  <si>
-    <t>bad north</t>
-  </si>
-  <si>
-    <t>fez</t>
-  </si>
-  <si>
-    <t>战略</t>
-  </si>
-  <si>
-    <t>火炬之光</t>
-  </si>
-  <si>
-    <t>蝙蝠侠阿卡姆疯人院年度游戏</t>
-  </si>
-  <si>
-    <t>observer</t>
-  </si>
-  <si>
-    <t>互动电影</t>
-  </si>
-  <si>
-    <t>hyper light drifter</t>
-  </si>
-  <si>
-    <t>蝙蝠侠阿卡姆之城</t>
-  </si>
-  <si>
-    <t>3 out of 10</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t>蔚蓝</t>
-  </si>
-  <si>
-    <t>乐高蝙蝠侠</t>
-  </si>
-  <si>
-    <t>a short hike</t>
-  </si>
-  <si>
-    <t>平台跳跃</t>
-  </si>
-  <si>
-    <t>乐高蝙蝠侠2</t>
-  </si>
-  <si>
-    <t>abzu</t>
-  </si>
-  <si>
-    <t>模拟经营</t>
-  </si>
-  <si>
-    <t>gonner</t>
-  </si>
-  <si>
-    <t>乐高蝙蝠侠3</t>
-  </si>
-  <si>
-    <t>AER</t>
-  </si>
-  <si>
-    <t>恐怖</t>
-  </si>
-  <si>
-    <t>天国 拯救</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无主之地2 </t>
-  </si>
-  <si>
-    <t>alan wake</t>
-  </si>
-  <si>
-    <t>棋牌</t>
-  </si>
-  <si>
-    <t>无主之地边缘禁地</t>
-  </si>
-  <si>
-    <t>alan wake's american nightmare</t>
-  </si>
-  <si>
-    <t>打飞机</t>
-  </si>
-  <si>
-    <t>drawful 2</t>
-  </si>
-  <si>
-    <t>amnesia</t>
-  </si>
-  <si>
-    <t>街机</t>
-  </si>
-  <si>
-    <t>figment</t>
-  </si>
-  <si>
-    <t>anodyne 2</t>
-  </si>
-  <si>
-    <t>解谜</t>
-  </si>
-  <si>
-    <t>hob</t>
-  </si>
-  <si>
-    <t>ape out</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>jotun</t>
-  </si>
-  <si>
-    <t>barony</t>
-  </si>
-  <si>
-    <t>生存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正当防卫4 </t>
-  </si>
-  <si>
-    <t>close to the sun</t>
-  </si>
-  <si>
-    <t>lifeless planet</t>
-  </si>
-  <si>
-    <t>conarium</t>
-  </si>
-  <si>
-    <t>minit</t>
-  </si>
-  <si>
-    <t>costume quest</t>
-  </si>
-  <si>
-    <t>moonlighter</t>
-  </si>
-  <si>
-    <t>darksiders2</t>
-  </si>
-  <si>
-    <t>mutazione</t>
-  </si>
-  <si>
-    <t>darksiders</t>
-  </si>
-  <si>
-    <t>next up hero</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>pathway</t>
-  </si>
-  <si>
-    <t>faeria</t>
-  </si>
-  <si>
-    <t>ruiner</t>
-  </si>
-  <si>
-    <t>faster than light</t>
-  </si>
-  <si>
-    <t>侍魂</t>
-  </si>
-  <si>
-    <t>for the king</t>
-  </si>
-  <si>
-    <t>文明6</t>
-  </si>
-  <si>
-    <t>gnog</t>
-  </si>
-  <si>
-    <t>夏洛克 福尔摩斯</t>
-  </si>
-  <si>
-    <t>gong home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">super brothers </t>
-  </si>
-  <si>
-    <t>hello neghbor</t>
-  </si>
-  <si>
-    <t>阿尔托游戏系列合集</t>
-  </si>
-  <si>
-    <t>inner space</t>
-  </si>
-  <si>
-    <t>the messenger</t>
-  </si>
-  <si>
-    <t>into the breach</t>
-  </si>
-  <si>
-    <t>这是我的战争</t>
-  </si>
-  <si>
-    <t>killing floor 2</t>
-  </si>
-  <si>
-    <t>totally accurate battle simulator</t>
-  </si>
-  <si>
-    <t>layers of fear</t>
-  </si>
-  <si>
-    <t>towerfall ascension</t>
-  </si>
-  <si>
-    <t>little inferno</t>
-  </si>
-  <si>
-    <t>wheels of aurelia</t>
-  </si>
-  <si>
-    <t>metro 2033</t>
-  </si>
-  <si>
-    <t>wilmot's warehouse</t>
-  </si>
-  <si>
-    <t>nuclear throne</t>
-  </si>
-  <si>
-    <t>yooka-laylee and the impossible liar</t>
-  </si>
-  <si>
-    <t>offworld trading company</t>
-  </si>
-  <si>
-    <t>enter the gungeon</t>
-  </si>
-  <si>
-    <t>地狱厨房</t>
-  </si>
-  <si>
-    <t>god's trigger</t>
-  </si>
-  <si>
-    <t>QUBE 2</t>
-  </si>
-  <si>
-    <t>remnant from the ashes</t>
-  </si>
-  <si>
-    <t>sludge life</t>
-  </si>
-  <si>
-    <t>crashlands</t>
-  </si>
-  <si>
-    <t>soma</t>
-  </si>
-  <si>
-    <t>stranger things 3</t>
-  </si>
-  <si>
-    <t>super hot</t>
-  </si>
-  <si>
-    <t>surviving mars</t>
-  </si>
-  <si>
-    <t>the end is nigh</t>
-  </si>
-  <si>
-    <t>越狱</t>
-  </si>
-  <si>
-    <t>越狱2</t>
-  </si>
-  <si>
-    <t>the stanley parable</t>
-  </si>
-  <si>
-    <t>the talos principle</t>
-  </si>
-  <si>
-    <t>the wolf among us</t>
-  </si>
-  <si>
-    <t>world war z</t>
-  </si>
-  <si>
-    <t>sundered(支离破碎)</t>
   </si>
   <si>
     <t>PC:</t>
@@ -457,9 +457,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -472,15 +472,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,8 +499,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,10 +537,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,58 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -614,6 +599,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="49">
     <fill>
@@ -720,37 +720,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +858,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,133 +888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,6 +959,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -991,33 +1000,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,11 +1026,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,6 +1041,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1064,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,133 +1076,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1630,10 +1630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1714,354 +1714,351 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="17" customHeight="1" spans="2:8">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="H5" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1" spans="2:8">
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="1" spans="2:8">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="2:8">
       <c r="B14" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1" spans="2:8">
       <c r="B15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="H15" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1" spans="2:8">
       <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" t="s">
         <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1" spans="2:8">
       <c r="B17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="H17" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1" spans="2:6">
       <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="1" spans="2:6">
       <c r="B19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1" spans="2:6">
       <c r="B20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1" spans="2:6">
       <c r="B21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="1" spans="2:6">
       <c r="B22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1" spans="2:6">
       <c r="B23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1" spans="2:6">
       <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" ht="17" customHeight="1" spans="2:6">
       <c r="B25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" ht="17" customHeight="1" spans="2:6">
       <c r="B26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" ht="17" customHeight="1" spans="2:6">
       <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="28" ht="17" customHeight="1" spans="2:6">
       <c r="B28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="2:6">
       <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" ht="17" customHeight="1" spans="2:6">
       <c r="B30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" ht="17" customHeight="1" spans="2:6">
       <c r="B31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" ht="17" customHeight="1" spans="2:6">
       <c r="B32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" ht="17" customHeight="1" spans="2:6">
       <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" ht="17" customHeight="1" spans="2:6">
       <c r="B34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" ht="17" customHeight="1" spans="2:6">
       <c r="B35" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" ht="17" customHeight="1" spans="2:6">
       <c r="B36" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" ht="17" customHeight="1" spans="2:6">
       <c r="B37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" ht="17" customHeight="1" spans="2:6">
       <c r="B38" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="39" ht="17" customHeight="1" spans="2:6">
       <c r="B39" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" ht="17" customHeight="1" spans="2:6">
@@ -2069,77 +2066,82 @@
         <v>18</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" ht="17" customHeight="1" spans="2:6">
       <c r="B41" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" ht="17" customHeight="1" spans="2:6">
       <c r="B42" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="43" ht="17" customHeight="1" spans="6:6">
       <c r="F43" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" ht="17" customHeight="1" spans="6:6">
       <c r="F44" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="1" t="s">
         <v>125</v>
       </c>
     </row>
